--- a/Cambridge.xlsx
+++ b/Cambridge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7F18-13F7-4A2C-BB6B-91E8825955F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB735051-08B0-4AF2-B6CF-782DC3E705C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4FF1152C-5C7B-49D0-AA2C-942EB65CCD34}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
     <t>sheep</t>
   </si>
   <si>
-    <t>Cambridge</t>
+    <t>Palabra</t>
   </si>
 </sst>
 </file>
@@ -4600,7 +4600,7 @@
   <dimension ref="A1:A1384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
